--- a/database/seeders/uploads/local/guests.xlsx
+++ b/database/seeders/uploads/local/guests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>Type</t>
   </si>
@@ -23,94 +23,145 @@
     <t>Username</t>
   </si>
   <si>
-    <t>Contact Name</t>
-  </si>
-  <si>
-    <t>Company Name</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Email</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Positions</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Reset Password</t>
   </si>
   <si>
     <t>contractor</t>
   </si>
   <si>
-    <t>hfbz</t>
-  </si>
-  <si>
-    <t>Harvey Kuhlman</t>
-  </si>
-  <si>
-    <t>Adams Group</t>
-  </si>
-  <si>
-    <t>+1.951.798.1867</t>
-  </si>
-  <si>
-    <t>jana.olson@daugherty.com</t>
-  </si>
-  <si>
-    <t>yrlt</t>
-  </si>
-  <si>
-    <t>Prof. Alvena Marks II</t>
-  </si>
-  <si>
-    <t>Cormier-Runolfsson</t>
-  </si>
-  <si>
-    <t>(865) 534-3188</t>
-  </si>
-  <si>
-    <t>hershel46@hotmail.com</t>
-  </si>
-  <si>
-    <t>jhif</t>
-  </si>
-  <si>
-    <t>Jamar Tremblay</t>
-  </si>
-  <si>
-    <t>Hoeger Inc</t>
-  </si>
-  <si>
-    <t>(740) 360-3677</t>
-  </si>
-  <si>
-    <t>garnet90@zieme.net</t>
-  </si>
-  <si>
-    <t>jnfv</t>
-  </si>
-  <si>
-    <t>Mr. Vaughn Hegmann V</t>
-  </si>
-  <si>
-    <t>Hudson, Auer and Aufderhar</t>
-  </si>
-  <si>
-    <t>+1-424-669-3998</t>
-  </si>
-  <si>
-    <t>edmond.runolfsson@huels.org</t>
-  </si>
-  <si>
-    <t>uhcq</t>
-  </si>
-  <si>
-    <t>Darrion Konopelski</t>
-  </si>
-  <si>
-    <t>Swaniawski-Hirthe</t>
-  </si>
-  <si>
-    <t>1-773-447-9718</t>
-  </si>
-  <si>
-    <t>dina33@yahoo.com</t>
+    <t>loip</t>
+  </si>
+  <si>
+    <t>Amie Auer</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>zabu</t>
+  </si>
+  <si>
+    <t>AN0R.[9CuziDA8iH+?s</t>
+  </si>
+  <si>
+    <t>tgcg</t>
+  </si>
+  <si>
+    <t>Josh Robel</t>
+  </si>
+  <si>
+    <t>hqzs</t>
+  </si>
+  <si>
+    <t>E=ZaFK..gory</t>
+  </si>
+  <si>
+    <t>ozwk</t>
+  </si>
+  <si>
+    <t>Prof. Ressie Pagac</t>
+  </si>
+  <si>
+    <t>odff</t>
+  </si>
+  <si>
+    <t>Qz!O&amp;$'&amp;p0mn};</t>
+  </si>
+  <si>
+    <t>ofqe</t>
+  </si>
+  <si>
+    <t>Mr. Dexter Gorczany</t>
+  </si>
+  <si>
+    <t>qroz</t>
+  </si>
+  <si>
+    <t>XrClYfQI?oD7</t>
+  </si>
+  <si>
+    <t>mobk</t>
+  </si>
+  <si>
+    <t>Miss Polly Dare DDS</t>
+  </si>
+  <si>
+    <t>dete</t>
+  </si>
+  <si>
+    <t>;RjOl&lt;(</t>
+  </si>
+  <si>
+    <t>viov</t>
+  </si>
+  <si>
+    <t>Waldo Langworth</t>
+  </si>
+  <si>
+    <t>xdfz</t>
+  </si>
+  <si>
+    <t>j&lt;\HW!5',"%ek[g^sfN</t>
+  </si>
+  <si>
+    <t>ngxo</t>
+  </si>
+  <si>
+    <t>Brandt Sawayn I</t>
+  </si>
+  <si>
+    <t>devc</t>
+  </si>
+  <si>
+    <t>+k&gt;G0@fu5</t>
+  </si>
+  <si>
+    <t>jzrv</t>
+  </si>
+  <si>
+    <t>Clint Lubowitz DVM</t>
+  </si>
+  <si>
+    <t>mnrx</t>
+  </si>
+  <si>
+    <t>(u@CfywW*O</t>
+  </si>
+  <si>
+    <t>axpc</t>
+  </si>
+  <si>
+    <t>Maddison Lowe Jr.</t>
+  </si>
+  <si>
+    <t>fsti</t>
+  </si>
+  <si>
+    <t>,vkR[_+DE[%:/cU6'</t>
+  </si>
+  <si>
+    <t>wgsm</t>
+  </si>
+  <si>
+    <t>Aurelio Abbott</t>
+  </si>
+  <si>
+    <t>epwt</t>
+  </si>
+  <si>
+    <t>e]pv+vvs"Fod@feeoQ</t>
   </si>
 </sst>
 </file>
@@ -450,7 +501,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +509,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,39 +528,45 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -517,10 +574,13 @@
       <c r="F3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -529,53 +589,177 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
